--- a/docs/2015-056b_Metagenom_1.xlsx
+++ b/docs/2015-056b_Metagenom_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23960" windowHeight="14880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23960" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Metagenome 68-79" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>center_code</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>This were sequenced for Metagenomes</t>
   </si>
 </sst>
 </file>
@@ -215,12 +218,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -250,11 +259,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="A1:C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,7 +578,7 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,18 +589,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" s="5"/>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -599,19 +614,25 @@
       <c r="C3" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="K3" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K4" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -621,8 +642,11 @@
       <c r="C5" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K5" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -632,41 +656,53 @@
       <c r="C6" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="K6" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="K7" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="K8" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K9" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -676,8 +712,11 @@
       <c r="C10" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K10" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -687,52 +726,64 @@
       <c r="C11" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="K11" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="K12" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="K13" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="K14" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -742,15 +793,19 @@
       <c r="C16" s="1">
         <v>69</v>
       </c>
+      <c r="K16">
+        <f>AVERAGE(K3:K14)</f>
+        <v>73.25</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
         <v>70</v>
       </c>
     </row>
@@ -788,24 +843,24 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
         <v>79</v>
       </c>
     </row>
@@ -821,13 +876,13 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
         <v>70</v>
       </c>
     </row>
@@ -865,13 +920,13 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
         <v>76</v>
       </c>
     </row>
@@ -893,10 +948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A2:C27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1201,6 +1256,12 @@
         <v>82</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f>AVERAGE(C2:C27)</f>
+        <v>80.961538461538467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1210,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A2:A55"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
